--- a/StatsMinMax.xlsx
+++ b/StatsMinMax.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benoit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdela\OneDrive\Documents\AA - Cours\INSA 4IF\ALIA\puissance4_prolog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA94902F-EDB3-4F7C-BA8A-CD9A960782CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1A39F2-8280-4AA2-9FF1-8325C28EED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E387FD2-3383-4DAE-9008-CC9B9F9FF387}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E387FD2-3383-4DAE-9008-CC9B9F9FF387}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>V</t>
   </si>
@@ -56,6 +57,27 @@
   <si>
     <t>Poids+Ligne+Colonne</t>
   </si>
+  <si>
+    <t>Poids+Ligne+Colonne+Diagonnales</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+0,5</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>%victoire</t>
+  </si>
+  <si>
+    <t>%defaite</t>
+  </si>
+  <si>
+    <t>%nulle</t>
+  </si>
 </sst>
 </file>
 
@@ -70,12 +92,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -277,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +340,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -297,28 +373,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,577 +738,1130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB3CD17-C45A-413D-9192-BD31F997CE50}">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="12" width="5" style="1"/>
     <col min="13" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="5" style="1"/>
+    <col min="14" max="14" width="6.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
+    </row>
+    <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>49</v>
       </c>
-      <c r="F4" s="14">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>50</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
-        <v>50</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>50</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
         <v>2</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="10">
         <v>48</v>
       </c>
-      <c r="O4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="11">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>50</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
       <c r="E5" s="2">
         <v>46</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>3</v>
       </c>
       <c r="H5" s="2">
         <v>47</v>
       </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
         <v>8</v>
       </c>
       <c r="K5" s="2">
         <v>42</v>
       </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>13</v>
       </c>
       <c r="N5" s="2">
         <v>37</v>
       </c>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>50</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>28</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>16</v>
       </c>
       <c r="H6" s="2">
         <v>32</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="5">
         <v>2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <v>12</v>
       </c>
       <c r="K6" s="2">
         <v>38</v>
       </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>16</v>
       </c>
       <c r="N6" s="2">
         <v>31</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>30</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>37</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>16</v>
       </c>
       <c r="H7" s="2">
         <v>32</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <v>19</v>
       </c>
       <c r="K7" s="2">
         <v>31</v>
       </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>26</v>
       </c>
       <c r="N7" s="2">
         <v>21</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="4">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>28</v>
+      </c>
+      <c r="R7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>50</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>50</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
         <v>50</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>50</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>50</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>50</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
         <v>50</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>50</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>50</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>49</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
         <v>49</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
       </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
         <v>48</v>
       </c>
       <c r="N10" s="2">
         <v>2</v>
       </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>43</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>2</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>37</v>
       </c>
       <c r="H11" s="2">
         <v>11</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="4">
         <v>44</v>
       </c>
       <c r="K11" s="2">
         <v>6</v>
       </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>43</v>
       </c>
       <c r="N11" s="2">
         <v>7</v>
       </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>13</v>
+      </c>
+      <c r="R11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>39</v>
       </c>
       <c r="E12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>40</v>
       </c>
       <c r="H12" s="2">
         <v>10</v>
       </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <v>38</v>
       </c>
       <c r="K12" s="2">
         <v>10</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="5">
         <v>2</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="4">
         <v>35</v>
       </c>
       <c r="N12" s="2">
         <v>11</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="4">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>11</v>
+      </c>
+      <c r="R12" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>50</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
         <v>50</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <v>50</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>50</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="9">
-        <v>50</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
-        <v>50</v>
-      </c>
-      <c r="J14" s="9">
-        <v>50</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11">
-        <v>50</v>
-      </c>
+      <c r="D14" s="6">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>50</v>
+      </c>
+      <c r="J14" s="6">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>50</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31">
+        <f>((SUM(E4:E8)+SUM(D9:D13))/500)*100</f>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="30">
+        <f>((SUM(H4:H8)+SUM(G9:G13))/500)*100</f>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30">
+        <f>((SUM(K4:K8)+SUM(J9:J13))/500)*100</f>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30">
+        <f>((SUM(N4:N8)+SUM(M9:M13))/500)*100</f>
+        <v>72.599999999999994</v>
+      </c>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30">
+        <f>((SUM(Q4:Q8)+SUM(P9:P13))/500)*100</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31">
+        <f>((SUM(D4:D8)+SUM(E9:E13))/500)*100</f>
+        <v>20.599999999999998</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="30">
+        <f t="shared" ref="G17:R17" si="0">((SUM(G4:G8)+SUM(H9:H13))/500)*100</f>
+        <v>21.4</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30">
+        <f t="shared" ref="J17:R17" si="1">((SUM(J4:J8)+SUM(K9:K13))/500)*100</f>
+        <v>21.2</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30">
+        <f t="shared" ref="M17:R17" si="2">((SUM(M4:M8)+SUM(N9:N13))/500)*100</f>
+        <v>25.4</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30">
+        <f t="shared" ref="P17:R17" si="3">((SUM(P4:P8)+SUM(Q9:Q13))/500)*100</f>
+        <v>23</v>
+      </c>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30">
+        <f>(SUM(F4:F13)/500)*100</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30">
+        <f t="shared" ref="G18" si="4">(SUM(I4:I13)/500)*100</f>
+        <v>1.2</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31">
+        <f t="shared" ref="J18" si="5">(SUM(L4:L13)/500)*100</f>
+        <v>0.4</v>
+      </c>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="30">
+        <f t="shared" ref="M18" si="6">(SUM(O4:O13)/500)*100</f>
+        <v>2</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30">
+        <f t="shared" ref="P18" si="7">(SUM(R4:R13)/500)*100</f>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="23">
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7F2718-4937-4DD1-B555-3A5D64A91F81}">
+  <dimension ref="C5:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="9" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="18"/>
+      <c r="D7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="18"/>
+      <c r="D8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="18"/>
+      <c r="D9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="18"/>
+      <c r="D10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="21"/>
+      <c r="D11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="18"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="18"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="18"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="21"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="18"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="18"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="18"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="18"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="21"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="18"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="18"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="18"/>
+      <c r="D30" s="27"/>
+      <c r="F30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="18"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="21"/>
+      <c r="D32" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/StatsMinMax.xlsx
+++ b/StatsMinMax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdela\OneDrive\Documents\AA - Cours\INSA 4IF\ALIA\puissance4_prolog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1A39F2-8280-4AA2-9FF1-8325C28EED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB30AF1-2CFA-4201-A05F-AFEFA40A8AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E387FD2-3383-4DAE-9008-CC9B9F9FF387}"/>
   </bookViews>
@@ -741,7 +741,7 @@
   <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/StatsMinMax.xlsx
+++ b/StatsMinMax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdela\OneDrive\Documents\AA - Cours\INSA 4IF\ALIA\puissance4_prolog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB30AF1-2CFA-4201-A05F-AFEFA40A8AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750864BD-0C54-4B2D-85D5-4C409C32B0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E387FD2-3383-4DAE-9008-CC9B9F9FF387}"/>
   </bookViews>
@@ -329,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +364,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,55 +421,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +744,7 @@
   <dimension ref="B1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,31 +763,31 @@
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="12" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="12" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="12" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
@@ -1419,115 +1422,122 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="31">
-        <f>((SUM(E4:E8)+SUM(D9:D13))/500)*100</f>
-        <v>78.400000000000006</v>
+        <f>((SUM(E4:E8)+SUM(D9:D13))/500)</f>
+        <v>0.78400000000000003</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
-      <c r="G16" s="30">
-        <f>((SUM(H4:H8)+SUM(G9:G13))/500)*100</f>
-        <v>77.400000000000006</v>
-      </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30">
-        <f>((SUM(K4:K8)+SUM(J9:J13))/500)*100</f>
-        <v>78.400000000000006</v>
-      </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30">
-        <f>((SUM(N4:N8)+SUM(M9:M13))/500)*100</f>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30">
-        <f>((SUM(Q4:Q8)+SUM(P9:P13))/500)*100</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
+      <c r="G16" s="31">
+        <f t="shared" ref="G16:R16" si="0">((SUM(H4:H8)+SUM(G9:G13))/500)</f>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31">
+        <f t="shared" ref="J16:R16" si="1">((SUM(K4:K8)+SUM(J9:J13))/500)</f>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31">
+        <f t="shared" ref="M16:R16" si="2">((SUM(N4:N8)+SUM(M9:M13))/500)</f>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31">
+        <f t="shared" ref="P16:R16" si="3">((SUM(Q4:Q8)+SUM(P9:P13))/500)</f>
+        <v>0.746</v>
+      </c>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="31">
-        <f>((SUM(D4:D8)+SUM(E9:E13))/500)*100</f>
-        <v>20.599999999999998</v>
+        <f>((SUM(D4:D8)+SUM(E9:E13))/500)</f>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
-      <c r="G17" s="30">
-        <f t="shared" ref="G17:R17" si="0">((SUM(G4:G8)+SUM(H9:H13))/500)*100</f>
-        <v>21.4</v>
-      </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30">
-        <f t="shared" ref="J17:R17" si="1">((SUM(J4:J8)+SUM(K9:K13))/500)*100</f>
-        <v>21.2</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30">
-        <f t="shared" ref="M17:R17" si="2">((SUM(M4:M8)+SUM(N9:N13))/500)*100</f>
-        <v>25.4</v>
-      </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30">
-        <f t="shared" ref="P17:R17" si="3">((SUM(P4:P8)+SUM(Q9:Q13))/500)*100</f>
-        <v>23</v>
-      </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
+      <c r="G17" s="31">
+        <f t="shared" ref="G17:R17" si="4">((SUM(G4:G8)+SUM(H9:H13))/500)</f>
+        <v>0.214</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31">
+        <f t="shared" ref="J17:R17" si="5">((SUM(J4:J8)+SUM(K9:K13))/500)</f>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31">
+        <f t="shared" ref="M17:R17" si="6">((SUM(M4:M8)+SUM(N9:N13))/500)</f>
+        <v>0.254</v>
+      </c>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31">
+        <f t="shared" ref="P17:R17" si="7">((SUM(P4:P8)+SUM(Q9:Q13))/500)</f>
+        <v>0.23</v>
+      </c>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30">
-        <f>(SUM(F4:F13)/500)*100</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30">
-        <f t="shared" ref="G18" si="4">(SUM(I4:I13)/500)*100</f>
-        <v>1.2</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31">
-        <f t="shared" ref="J18" si="5">(SUM(L4:L13)/500)*100</f>
-        <v>0.4</v>
-      </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="30">
-        <f t="shared" ref="M18" si="6">(SUM(O4:O13)/500)*100</f>
-        <v>2</v>
-      </c>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30">
-        <f t="shared" ref="P18" si="7">(SUM(R4:R13)/500)*100</f>
-        <v>2.1999999999999997</v>
-      </c>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="32">
+        <f>(SUM(F4:F13)/500)</f>
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32">
+        <f t="shared" ref="G18" si="8">(SUM(I4:I13)/500)</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32">
+        <f t="shared" ref="J18" si="9">(SUM(L4:L13)/500)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32">
+        <f t="shared" ref="M18" si="10">(SUM(O4:O13)/500)</f>
+        <v>0.02</v>
+      </c>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32">
+        <f t="shared" ref="P18" si="11">(SUM(R4:R13)/500)</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:F17"/>
@@ -1544,15 +1554,9 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1571,294 +1575,294 @@
   <sheetData>
     <row r="5" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="18"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="18"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="18"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="18"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="21"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="18"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="18"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="19"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="18"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="27" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="21"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="22"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="18"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="19"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="18"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="19"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="18"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="19"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="18"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="I24" s="19"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="21"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="22"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="18"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="19"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="18"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="18"/>
-      <c r="D30" s="27"/>
-      <c r="F30" s="27" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="24"/>
+      <c r="F30" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="19"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="3:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="18"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="I31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="3:9" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="21"/>
-      <c r="D32" s="29" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="22"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
